--- a/configs/configs.xlsx
+++ b/configs/configs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\cs-systeminit\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519444E-068B-4AEB-A8AF-55AF8D1A0B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943417CD-6E8E-4BFB-8A8E-B680CD40BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="660" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{9B007E3E-CA0D-3241-B156-8743C27B2BB1}"/>
+    <workbookView xWindow="-38520" yWindow="660" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{9B007E3E-CA0D-3241-B156-8743C27B2BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table_Columns" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Columns!$A$1:$H$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Columns!$A$1:$G$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="436">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1088,10 +1088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>changed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1654,6 +1650,25 @@
   </si>
   <si>
     <t>common,pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurSalary</t>
+  </si>
+  <si>
+    <t>CurSalary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TexBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2110,13 +2125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271E7991-A726-2349-960B-CBFBC525E13F}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2129,7 +2144,7 @@
     <col min="7" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2149,13 +2164,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2171,9 +2183,8 @@
         <v>7</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2189,9 +2200,8 @@
         <v>46</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2207,9 +2217,8 @@
         <v>47</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2225,9 +2234,8 @@
         <v>48</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2243,9 +2251,8 @@
         <v>46</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2261,9 +2268,8 @@
         <v>47</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2281,9 +2287,8 @@
         <v>49</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2296,16 +2301,13 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2320,14 +2322,11 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2342,14 +2341,11 @@
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2364,14 +2360,11 @@
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2386,14 +2379,11 @@
       <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2408,34 +2398,30 @@
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>112</v>
@@ -2451,11 +2437,10 @@
         <v>7</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>113</v>
@@ -2471,9 +2456,8 @@
         <v>50</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2487,9 +2471,8 @@
         <v>47</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -2503,17 +2486,16 @@
         <v>47</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2521,9 +2503,8 @@
         <v>47</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>212</v>
       </c>
@@ -2537,9 +2518,8 @@
         <v>7</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>235</v>
       </c>
@@ -2553,11 +2533,10 @@
         <v>48</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2569,11 +2548,10 @@
         <v>46</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>269</v>
@@ -2587,9 +2565,8 @@
         <v>47</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>238</v>
       </c>
@@ -2605,9 +2582,8 @@
         <v>49</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>239</v>
       </c>
@@ -2621,9 +2597,8 @@
         <v>48</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>240</v>
       </c>
@@ -2637,9 +2612,8 @@
         <v>46</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -2655,14 +2629,13 @@
         <v>47</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>38</v>
@@ -2673,14 +2646,13 @@
         <v>48</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
@@ -2691,14 +2663,13 @@
         <v>46</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2709,9 +2680,8 @@
         <v>47</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -2727,9 +2697,8 @@
         <v>46</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -2744,12 +2713,11 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -2767,9 +2735,8 @@
         <v>7</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -2782,16 +2749,13 @@
       <c r="F35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2799,11 +2763,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2811,9 +2774,8 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
@@ -2830,14 +2792,11 @@
       <c r="F38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2855,9 +2814,8 @@
         <v>7</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -2874,14 +2832,11 @@
       <c r="F40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -2899,11 +2854,10 @@
         <v>7</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>121</v>
@@ -2916,16 +2870,13 @@
       <c r="F42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>122</v>
@@ -2938,16 +2889,13 @@
       <c r="F43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>123</v>
@@ -2960,14 +2908,11 @@
       <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2981,9 +2926,8 @@
         <v>48</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2997,9 +2941,8 @@
         <v>47</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3017,9 +2960,8 @@
         <v>7</v>
       </c>
       <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
@@ -3035,9 +2977,8 @@
         <v>7</v>
       </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
@@ -3055,9 +2996,8 @@
         <v>7</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -3074,14 +3014,11 @@
       <c r="F50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -3099,9 +3036,8 @@
         <v>7</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -3118,14 +3054,11 @@
       <c r="F52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -3143,9 +3076,8 @@
         <v>7</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -3162,14 +3094,11 @@
       <c r="F54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -3187,17 +3116,16 @@
         <v>7</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3205,9 +3133,8 @@
         <v>7</v>
       </c>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -3225,9 +3152,8 @@
         <v>50</v>
       </c>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -3245,9 +3171,8 @@
         <v>7</v>
       </c>
       <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
@@ -3263,9 +3188,8 @@
         <v>7</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -3283,9 +3207,8 @@
         <v>7</v>
       </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>42</v>
       </c>
@@ -3302,14 +3225,11 @@
       <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,14 +3246,11 @@
       <c r="F62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>44</v>
       </c>
@@ -3350,14 +3267,11 @@
       <c r="F63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>84</v>
       </c>
@@ -3374,14 +3288,11 @@
       <c r="F64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -3398,14 +3309,11 @@
       <c r="F65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -3422,14 +3330,11 @@
       <c r="F66" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -3446,14 +3351,11 @@
       <c r="F67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -3468,14 +3370,11 @@
       <c r="F68" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -3490,14 +3389,11 @@
       <c r="F69" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -3512,14 +3408,11 @@
       <c r="F70" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
@@ -3534,14 +3427,11 @@
       <c r="F71" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -3558,14 +3448,11 @@
       <c r="F72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>92</v>
       </c>
@@ -3582,14 +3469,11 @@
       <c r="F73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>93</v>
       </c>
@@ -3606,14 +3490,11 @@
       <c r="F74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -3628,14 +3509,11 @@
       <c r="F75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -3652,14 +3530,11 @@
       <c r="F76" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -3676,14 +3551,11 @@
       <c r="F77" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>209</v>
       </c>
@@ -3700,14 +3572,11 @@
       <c r="F78" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
@@ -3725,9 +3594,8 @@
         <v>50</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
@@ -3745,9 +3613,8 @@
         <v>50</v>
       </c>
       <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
@@ -3765,9 +3632,8 @@
         <v>7</v>
       </c>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
@@ -3785,9 +3651,8 @@
         <v>7</v>
       </c>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -3803,9 +3668,8 @@
         <v>47</v>
       </c>
       <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -3823,9 +3687,8 @@
         <v>50</v>
       </c>
       <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
@@ -3843,9 +3706,8 @@
         <v>7</v>
       </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
@@ -3863,9 +3725,8 @@
         <v>7</v>
       </c>
       <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
@@ -3883,9 +3744,8 @@
         <v>50</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -3902,14 +3762,11 @@
       <c r="F88" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -3926,14 +3783,11 @@
       <c r="F89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
@@ -3950,14 +3804,11 @@
       <c r="F90" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -3974,14 +3825,11 @@
       <c r="F91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
@@ -3998,16 +3846,13 @@
       <c r="F92" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>149</v>
@@ -4021,9 +3866,8 @@
         <v>47</v>
       </c>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>100</v>
       </c>
@@ -4038,14 +3882,11 @@
       <c r="F94" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>170</v>
       </c>
@@ -4060,14 +3901,11 @@
       <c r="F95" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>171</v>
       </c>
@@ -4082,14 +3920,11 @@
       <c r="F96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>172</v>
       </c>
@@ -4106,14 +3941,11 @@
       <c r="F97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>173</v>
       </c>
@@ -4130,14 +3962,11 @@
       <c r="F98" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>174</v>
       </c>
@@ -4154,14 +3983,11 @@
       <c r="F99" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
@@ -4176,14 +4002,11 @@
       <c r="F100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G100" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>176</v>
       </c>
@@ -4198,14 +4021,11 @@
       <c r="F101" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -4220,14 +4040,11 @@
       <c r="F102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -4242,14 +4059,11 @@
       <c r="F103" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>178</v>
       </c>
@@ -4265,9 +4079,8 @@
         <v>47</v>
       </c>
       <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>177</v>
       </c>
@@ -4282,14 +4095,11 @@
       <c r="F105" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>179</v>
       </c>
@@ -4305,9 +4115,8 @@
         <v>47</v>
       </c>
       <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>20</v>
       </c>
@@ -4322,14 +4131,11 @@
       <c r="F107" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>68</v>
       </c>
@@ -4344,14 +4150,11 @@
       <c r="F108" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>101</v>
       </c>
@@ -4366,14 +4169,11 @@
       <c r="F109" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>102</v>
       </c>
@@ -4390,14 +4190,11 @@
       <c r="F110" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G110" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
@@ -4414,14 +4211,11 @@
       <c r="F111" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>105</v>
       </c>
@@ -4438,14 +4232,11 @@
       <c r="F112" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>106</v>
       </c>
@@ -4462,14 +4253,11 @@
       <c r="F113" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>107</v>
       </c>
@@ -4486,14 +4274,11 @@
       <c r="F114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>108</v>
       </c>
@@ -4510,14 +4295,11 @@
       <c r="F115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>109</v>
       </c>
@@ -4534,14 +4316,11 @@
       <c r="F116" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G116" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>110</v>
       </c>
@@ -4558,14 +4337,11 @@
       <c r="F117" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G117" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>111</v>
       </c>
@@ -4582,14 +4358,11 @@
       <c r="F118" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G118" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>180</v>
       </c>
@@ -4605,9 +4378,8 @@
         <v>48</v>
       </c>
       <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>181</v>
       </c>
@@ -4622,14 +4394,11 @@
       <c r="F120" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>182</v>
       </c>
@@ -4646,14 +4415,11 @@
       <c r="F121" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>183</v>
       </c>
@@ -4670,14 +4436,11 @@
       <c r="F122" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G122" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>184</v>
       </c>
@@ -4694,14 +4457,11 @@
       <c r="F123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G123" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>185</v>
       </c>
@@ -4717,11 +4477,10 @@
         <v>7</v>
       </c>
       <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>211</v>
@@ -4734,14 +4493,11 @@
       <c r="F125" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G125" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>213</v>
       </c>
@@ -4757,9 +4513,8 @@
         <v>47</v>
       </c>
       <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>58</v>
       </c>
@@ -4775,9 +4530,8 @@
         <v>47</v>
       </c>
       <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>214</v>
       </c>
@@ -4795,9 +4549,8 @@
         <v>7</v>
       </c>
       <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>215</v>
       </c>
@@ -4813,9 +4566,8 @@
         <v>48</v>
       </c>
       <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>216</v>
       </c>
@@ -4833,9 +4585,8 @@
         <v>271</v>
       </c>
       <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>217</v>
       </c>
@@ -4853,9 +4604,8 @@
         <v>271</v>
       </c>
       <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>218</v>
       </c>
@@ -4873,9 +4623,8 @@
         <v>271</v>
       </c>
       <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>219</v>
       </c>
@@ -4893,9 +4642,8 @@
         <v>7</v>
       </c>
       <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>220</v>
       </c>
@@ -4913,9 +4661,8 @@
         <v>7</v>
       </c>
       <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>221</v>
       </c>
@@ -4933,9 +4680,8 @@
         <v>7</v>
       </c>
       <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>222</v>
       </c>
@@ -4953,9 +4699,8 @@
         <v>7</v>
       </c>
       <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>223</v>
       </c>
@@ -4973,9 +4718,8 @@
         <v>7</v>
       </c>
       <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>224</v>
       </c>
@@ -4993,9 +4737,8 @@
         <v>7</v>
       </c>
       <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>225</v>
       </c>
@@ -5013,9 +4756,8 @@
         <v>7</v>
       </c>
       <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>226</v>
       </c>
@@ -5033,9 +4775,8 @@
         <v>50</v>
       </c>
       <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>227</v>
       </c>
@@ -5051,9 +4792,8 @@
         <v>48</v>
       </c>
       <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>228</v>
       </c>
@@ -5071,9 +4811,8 @@
         <v>50</v>
       </c>
       <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>229</v>
       </c>
@@ -5091,9 +4830,8 @@
         <v>50</v>
       </c>
       <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>230</v>
       </c>
@@ -5111,9 +4849,8 @@
         <v>7</v>
       </c>
       <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>231</v>
       </c>
@@ -5131,9 +4868,8 @@
         <v>7</v>
       </c>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>232</v>
       </c>
@@ -5151,9 +4887,8 @@
         <v>7</v>
       </c>
       <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>233</v>
       </c>
@@ -5169,9 +4904,8 @@
         <v>47</v>
       </c>
       <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>234</v>
       </c>
@@ -5187,9 +4921,8 @@
         <v>47</v>
       </c>
       <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>264</v>
       </c>
@@ -5205,10 +4938,29 @@
         <v>48</v>
       </c>
       <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D150" s="3">
+        <v>18</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>435</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H149" xr:uid="{271E7991-A726-2349-960B-CBFBC525E13F}"/>
+  <autoFilter ref="A1:G149" xr:uid="{271E7991-A726-2349-960B-CBFBC525E13F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5219,7 +4971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D4C3FF-D09F-4AC6-B507-87AAE278E9DE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -5233,128 +4985,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -5366,13 +5118,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DB6AD3-5106-4D8B-9322-470FDC0F3E5F}">
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -5391,44 +5143,46 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
@@ -5449,10 +5203,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5467,10 +5221,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>115</v>
@@ -5487,13 +5241,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="7"/>
@@ -5507,13 +5261,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="7"/>
@@ -5527,13 +5281,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="7"/>
@@ -5547,13 +5301,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
@@ -5567,13 +5321,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="7"/>
@@ -5587,10 +5341,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5605,10 +5359,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5623,13 +5377,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="7"/>
@@ -5643,10 +5397,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5661,10 +5415,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5679,10 +5433,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5697,13 +5451,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="7"/>
@@ -5717,13 +5471,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="7"/>
@@ -5737,13 +5491,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="7"/>
@@ -5757,10 +5511,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5773,10 +5527,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5793,10 +5547,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5821,10 +5575,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="b">
@@ -5847,12 +5601,14 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
       <c r="F24" s="1"/>
@@ -5867,10 +5623,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5885,10 +5641,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5903,10 +5659,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>115</v>
@@ -5921,13 +5677,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="7"/>
@@ -5939,13 +5695,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="7"/>
@@ -5957,13 +5713,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="7"/>
@@ -5975,13 +5731,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="7"/>
@@ -5993,13 +5749,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
@@ -6011,10 +5767,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6029,10 +5785,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6047,13 +5803,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="7"/>
@@ -6067,10 +5823,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -6085,10 +5841,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6101,10 +5857,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -6117,13 +5873,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="7"/>
@@ -6137,10 +5893,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6153,10 +5909,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -6169,10 +5925,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6187,10 +5943,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6205,10 +5961,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6225,10 +5981,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6245,10 +6001,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6277,10 +6033,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="b">
@@ -6303,13 +6059,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="7"/>
@@ -6325,12 +6081,14 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="7"/>
       <c r="F50" s="1"/>
@@ -6343,10 +6101,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6361,10 +6119,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>243</v>
@@ -6381,10 +6139,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>244</v>
@@ -6401,10 +6159,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>115</v>
@@ -6421,13 +6179,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="7"/>
@@ -6441,13 +6199,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="7"/>
@@ -6461,13 +6219,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="7"/>
@@ -6481,13 +6239,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="7"/>
@@ -6501,13 +6259,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="7"/>
@@ -6521,10 +6279,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6539,10 +6297,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6557,10 +6315,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6575,10 +6333,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6593,13 +6351,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="7"/>
@@ -6613,13 +6371,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="7"/>
@@ -6633,13 +6391,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="7"/>
@@ -6653,10 +6411,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6671,10 +6429,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6689,10 +6447,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6707,10 +6465,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6737,10 +6495,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="b">
@@ -6763,13 +6521,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="7"/>
@@ -6783,12 +6541,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="7"/>
       <c r="F74" s="1"/>
@@ -6801,10 +6561,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6819,10 +6579,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>243</v>
@@ -6839,10 +6599,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>244</v>
@@ -6859,10 +6619,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>115</v>
@@ -6879,13 +6639,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="7"/>
@@ -6899,13 +6659,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="7"/>
@@ -6919,13 +6679,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="7"/>
@@ -6939,13 +6699,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="7"/>
@@ -6959,13 +6719,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="7"/>
@@ -6979,10 +6739,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6997,10 +6757,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -7015,10 +6775,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7033,10 +6793,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -7051,13 +6811,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="7"/>
@@ -7071,13 +6831,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="7"/>
@@ -7091,13 +6851,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="7"/>
@@ -7111,10 +6871,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7129,10 +6889,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7147,10 +6907,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7165,10 +6925,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7183,10 +6943,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7201,10 +6961,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7219,10 +6979,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7237,10 +6997,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7267,12 +7027,14 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C100" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D100" s="1" t="b">
         <v>1</v>
       </c>
@@ -7293,10 +7055,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -7311,10 +7073,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>251</v>
@@ -7331,13 +7093,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="7"/>
@@ -7351,13 +7113,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="7"/>
@@ -7371,13 +7133,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="7"/>
@@ -7391,13 +7153,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="7"/>
@@ -7411,13 +7173,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="7"/>
@@ -7431,10 +7193,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -7449,10 +7211,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -7467,10 +7229,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -7485,13 +7247,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="7"/>
@@ -7505,13 +7267,13 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="7"/>
@@ -7525,13 +7287,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="7"/>
@@ -7545,10 +7307,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -7561,10 +7323,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -7589,10 +7351,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="b">
@@ -7615,10 +7377,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -7633,12 +7395,14 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C119" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="7"/>
       <c r="F119" s="1"/>
@@ -7651,10 +7415,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -7669,10 +7433,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>251</v>
@@ -7689,13 +7453,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="7"/>
@@ -7707,13 +7471,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="7"/>
@@ -7725,13 +7489,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="7"/>
@@ -7743,13 +7507,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="7"/>
@@ -7761,13 +7525,13 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="7"/>
@@ -7779,10 +7543,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -7797,10 +7561,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -7815,10 +7579,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -7833,13 +7597,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="7"/>
@@ -7853,10 +7617,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -7869,10 +7633,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -7885,10 +7649,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -7903,10 +7667,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -7921,10 +7685,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -7941,10 +7705,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -7961,10 +7725,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -7993,10 +7757,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="b">
@@ -8019,13 +7783,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="7"/>
@@ -8039,12 +7803,14 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C141" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D141" s="1"/>
       <c r="E141" s="7"/>
       <c r="F141" s="1"/>
@@ -8057,10 +7823,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -8075,10 +7841,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>243</v>
@@ -8095,10 +7861,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>244</v>
@@ -8115,10 +7881,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>251</v>
@@ -8135,13 +7901,13 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="7"/>
@@ -8155,13 +7921,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="7"/>
@@ -8175,13 +7941,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="7"/>
@@ -8195,13 +7961,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="7"/>
@@ -8215,13 +7981,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="7"/>
@@ -8235,10 +8001,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -8253,10 +8019,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -8271,10 +8037,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -8289,10 +8055,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -8307,10 +8073,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -8325,10 +8091,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -8350,10 +8116,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="b">
@@ -8376,13 +8142,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="7"/>
@@ -8396,12 +8162,14 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C160" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="7"/>
       <c r="F160" s="1"/>
@@ -8414,10 +8182,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -8432,10 +8200,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>243</v>
@@ -8452,10 +8220,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>244</v>
@@ -8472,10 +8240,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>251</v>
@@ -8492,13 +8260,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="7"/>
@@ -8512,13 +8280,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="7"/>
@@ -8532,13 +8300,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="7"/>
@@ -8552,13 +8320,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="7"/>
@@ -8572,13 +8340,13 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="7"/>
@@ -8592,10 +8360,10 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -8610,10 +8378,10 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -8628,10 +8396,10 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -8646,10 +8414,10 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -8664,10 +8432,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -8682,10 +8450,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -8700,10 +8468,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -8718,10 +8486,10 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -8736,10 +8504,10 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -8754,10 +8522,10 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -8779,10 +8547,10 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="b">
@@ -8805,10 +8573,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -8823,10 +8591,10 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -8841,10 +8609,10 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -8861,10 +8629,10 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -8881,10 +8649,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -8897,10 +8665,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -8913,10 +8681,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -8929,10 +8697,10 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>254</v>
@@ -8947,13 +8715,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="7"/>
@@ -8965,13 +8733,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="7"/>
@@ -8983,13 +8751,13 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="7"/>
@@ -9001,13 +8769,13 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="7"/>
@@ -9019,13 +8787,13 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="7"/>
@@ -9037,7 +8805,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>44</v>
@@ -9053,10 +8821,10 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -9069,7 +8837,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>73</v>
@@ -9085,7 +8853,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>75</v>
@@ -9101,10 +8869,10 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -9117,10 +8885,10 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -9133,7 +8901,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>74</v>
@@ -9149,10 +8917,10 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -9165,7 +8933,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>45</v>
@@ -9181,7 +8949,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>94</v>
@@ -9197,7 +8965,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>92</v>
@@ -9213,7 +8981,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>79</v>
@@ -9229,7 +8997,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>80</v>
@@ -9245,7 +9013,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>81</v>
@@ -9261,7 +9029,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>209</v>
@@ -9277,7 +9045,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>85</v>
@@ -9293,7 +9061,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>86</v>
@@ -9309,7 +9077,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>87</v>
@@ -9325,7 +9093,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>91</v>
@@ -9341,7 +9109,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>82</v>
@@ -9357,7 +9125,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>83</v>
@@ -9373,7 +9141,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>88</v>
@@ -9389,7 +9157,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>89</v>
@@ -9405,7 +9173,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>90</v>
@@ -9421,7 +9189,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>95</v>
@@ -9437,7 +9205,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>96</v>
@@ -9453,7 +9221,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>97</v>
@@ -9469,7 +9237,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>98</v>
@@ -9485,7 +9253,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>99</v>
@@ -9501,10 +9269,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -9517,7 +9285,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>100</v>
@@ -9533,7 +9301,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>20</v>
@@ -9549,7 +9317,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>68</v>
@@ -9565,7 +9333,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>101</v>
@@ -9581,13 +9349,13 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="7"/>
@@ -9599,13 +9367,13 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="7"/>
@@ -9617,7 +9385,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>102</v>
@@ -9633,7 +9401,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>104</v>
@@ -9649,7 +9417,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>105</v>
@@ -9665,7 +9433,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>106</v>
@@ -9681,7 +9449,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>107</v>
@@ -9697,7 +9465,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>108</v>
@@ -9713,10 +9481,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -9729,10 +9497,10 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -9749,10 +9517,10 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -9769,10 +9537,10 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -9789,10 +9557,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -9809,10 +9577,10 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -9829,7 +9597,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>235</v>
@@ -9849,7 +9617,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>236</v>
@@ -9869,7 +9637,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>237</v>
@@ -9889,7 +9657,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>238</v>
@@ -9909,7 +9677,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>239</v>
@@ -9929,7 +9697,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>240</v>
@@ -9949,7 +9717,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>241</v>
@@ -9969,10 +9737,10 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -9989,10 +9757,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -10006,6 +9774,14 @@
         <v>1</v>
       </c>
       <c r="J251" s="1"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>431</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10024,7 +9800,7 @@
           <x14:formula1>
             <xm:f>Tables!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A21 A23:A46 A48:A70 A72:A98 A100:A115 A117:A137 A139:A156 A158:A179 A181:A251</xm:sqref>
+          <xm:sqref>A2:A21 A23:A46 A48:A70 A72:A98 A100:A115 A117:A137 A139:A156 A158:A179 A181:A252</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
